--- a/references/Census_Tables.xlsx
+++ b/references/Census_Tables.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Income" sheetId="2" r:id="rId2"/>
+    <sheet name="Vehicles" sheetId="4" r:id="rId3"/>
+    <sheet name="Commute" sheetId="3" r:id="rId4"/>
+    <sheet name="Tenure" sheetId="5" r:id="rId5"/>
+    <sheet name="Race" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="123">
   <si>
     <t>Category</t>
   </si>
@@ -123,7 +127,277 @@
     <t>ACS 5 yr</t>
   </si>
   <si>
-    <t>Household Income in the Past 12 Months (inflation-adjusted dollars for each year) (B19001)</t>
+    <t>S1903</t>
+  </si>
+  <si>
+    <t>Total HH</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>AmerInd</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>PacIs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Two race</t>
+  </si>
+  <si>
+    <t>Hisp</t>
+  </si>
+  <si>
+    <t>Non-Hisp</t>
+  </si>
+  <si>
+    <t>2010-2016</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>number of hh</t>
+  </si>
+  <si>
+    <t>% by race</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>median hh income</t>
+  </si>
+  <si>
+    <t>number of hh by race</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>2017-2018</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>amerind</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>pacis</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>race2</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>nonhisp</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>hisp</t>
+  </si>
+  <si>
+    <t>ACS 5 yr Subject</t>
+  </si>
+  <si>
+    <t>income_range</t>
+  </si>
+  <si>
+    <t>S0802</t>
+  </si>
+  <si>
+    <t>MEDIAN INCOME IN THE PAST 12 MONTHS (INFLATION-ADJUSTED) (S1903) for race categories</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD INCOME IN THE PAST 12 MONTHS (INFLATION-ADJUSTED) (B19001) by income ranges and has supplemental tables for each race</t>
+  </si>
+  <si>
+    <t>MEANS OF TRANSPORTATION TO WORK BY SELECTED CHARACTERISTICS (S0802)</t>
+  </si>
+  <si>
+    <t>use this to re-assemble average income</t>
+  </si>
+  <si>
+    <t>universe: workers 16+  years</t>
+  </si>
+  <si>
+    <t>commute</t>
+  </si>
+  <si>
+    <t>vehicles</t>
+  </si>
+  <si>
+    <t># Workers 16+ yrs</t>
+  </si>
+  <si>
+    <t>0 vehicles</t>
+  </si>
+  <si>
+    <t>1 vehicle</t>
+  </si>
+  <si>
+    <t>2 vehicles</t>
+  </si>
+  <si>
+    <t>3+ vehicles</t>
+  </si>
+  <si>
+    <t>* calculate % zero-vehicle workers</t>
+  </si>
+  <si>
+    <t>S0801</t>
+  </si>
+  <si>
+    <t>COMMUTING CHARACTERISTICS BY SEX (S0801)</t>
+  </si>
+  <si>
+    <t>commute mode</t>
+  </si>
+  <si>
+    <t>% zero vehicle workers</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Drove alone</t>
+  </si>
+  <si>
+    <t>2-person carpool</t>
+  </si>
+  <si>
+    <t>3-person carpool</t>
+  </si>
+  <si>
+    <t>4+ carpool</t>
+  </si>
+  <si>
+    <t>Public transportation (excluding taxicab)</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Worked at home</t>
+  </si>
+  <si>
+    <t>Taxicab, motorcycle, or other means</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>* values given are percents for all years…can just subset to _094</t>
+  </si>
+  <si>
+    <t>* calculate commute mode for public transit, walk, bicycle, and drove</t>
+  </si>
+  <si>
+    <t>* values given are percents for all years…can just subset and aggregate to categories we want</t>
+  </si>
+  <si>
+    <t>B25008</t>
+  </si>
+  <si>
+    <t>tenure</t>
+  </si>
+  <si>
+    <t>% renter-occupied</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>B02001</t>
+  </si>
+  <si>
+    <t>TOTAL POPULATION IN OCCUPIED HOUSING UNITS BY TENURE (B25008)</t>
+  </si>
+  <si>
+    <t>total pop</t>
+  </si>
+  <si>
+    <t>total pop in owner occupied housing units</t>
+  </si>
+  <si>
+    <t>total pop in renter occupied housing units</t>
+  </si>
+  <si>
+    <t>RACE (B02001)</t>
+  </si>
+  <si>
+    <t>universe: total population. Breaks apart population according to owner vs renter-occupied housing units.</t>
+  </si>
+  <si>
+    <t>two or more</t>
+  </si>
+  <si>
+    <t>* % population that lives in renter-occupied housing units</t>
+  </si>
+  <si>
+    <t>* values given are raw numbers of population for all years</t>
+  </si>
+  <si>
+    <t>* what outcome should we use? % white? % non-white?</t>
+  </si>
+  <si>
+    <t>% white or % non-white?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">universe: total population. Breaks apart population according to race categories. </t>
+  </si>
+  <si>
+    <t>universe: households</t>
   </si>
 </sst>
 </file>
@@ -188,92 +462,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EAF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAF2DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAEDBC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBF0FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EAF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2EFDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAF2DE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAEDBC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCBF0FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -549,16 +738,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="3" customWidth="1"/>
@@ -590,15 +779,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -609,26 +798,1225 @@
       <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>2010</v>
+      </c>
+      <c r="D1">
+        <v>2011</v>
+      </c>
+      <c r="E1">
+        <v>2012</v>
+      </c>
+      <c r="F1">
+        <v>2013</v>
+      </c>
+      <c r="G1">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2015</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2017</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2010</v>
+      </c>
+      <c r="D21">
+        <v>2011</v>
+      </c>
+      <c r="E21">
+        <v>2012</v>
+      </c>
+      <c r="F21">
+        <v>2013</v>
+      </c>
+      <c r="G21">
+        <v>2014</v>
+      </c>
+      <c r="H21">
+        <v>2015</v>
+      </c>
+      <c r="I21">
+        <v>2016</v>
+      </c>
+      <c r="J21">
+        <v>2017</v>
+      </c>
+      <c r="K21">
+        <v>2018</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -657,10 +2045,13 @@
       <c r="J1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -689,10 +2080,693 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>2010</v>
+      </c>
+      <c r="D1">
+        <v>2011</v>
+      </c>
+      <c r="E1">
+        <v>2012</v>
+      </c>
+      <c r="F1">
+        <v>2013</v>
+      </c>
+      <c r="G1">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2015</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2017</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
         <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>2010</v>
+      </c>
+      <c r="D1">
+        <v>2011</v>
+      </c>
+      <c r="E1">
+        <v>2012</v>
+      </c>
+      <c r="F1">
+        <v>2013</v>
+      </c>
+      <c r="G1">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2015</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2017</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -721,10 +2795,13 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -753,10 +2830,178 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>2010</v>
+      </c>
+      <c r="D1">
+        <v>2011</v>
+      </c>
+      <c r="E1">
+        <v>2012</v>
+      </c>
+      <c r="F1">
+        <v>2013</v>
+      </c>
+      <c r="G1">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2015</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2017</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -785,10 +3030,13 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -817,10 +3065,13 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -849,10 +3100,13 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -881,10 +3135,13 @@
       <c r="J8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -913,293 +3170,18 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/references/Census_Tables.xlsx
+++ b/references/Census_Tables.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="123">
   <si>
     <t>Category</t>
   </si>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1011,6 +1011,9 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1043,6 +1046,9 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" t="s">
         <v>52</v>
       </c>
@@ -1081,6 +1087,9 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
       <c r="N4" t="s">
         <v>54</v>
       </c>
@@ -1119,6 +1128,9 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
       <c r="N5" t="s">
         <v>56</v>
       </c>
@@ -1157,6 +1169,9 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
       <c r="N6" t="s">
         <v>58</v>
       </c>
@@ -1195,6 +1210,9 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
       <c r="N7" t="s">
         <v>60</v>
       </c>
@@ -1233,6 +1251,9 @@
       <c r="J8" t="s">
         <v>12</v>
       </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" t="s">
         <v>62</v>
       </c>
@@ -1271,6 +1292,9 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" t="s">
         <v>64</v>
       </c>
@@ -1309,6 +1333,9 @@
       <c r="J10" t="s">
         <v>12</v>
       </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
       <c r="N10" t="s">
         <v>66</v>
       </c>
@@ -1347,6 +1374,9 @@
       <c r="J11" t="s">
         <v>12</v>
       </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
       <c r="N11" t="s">
         <v>68</v>
       </c>
@@ -1385,6 +1415,9 @@
       <c r="J12" t="s">
         <v>12</v>
       </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1417,6 +1450,9 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1449,6 +1485,9 @@
       <c r="J14" t="s">
         <v>12</v>
       </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1481,6 +1520,9 @@
       <c r="J15" t="s">
         <v>12</v>
       </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1513,6 +1555,9 @@
       <c r="J16" t="s">
         <v>12</v>
       </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -1545,6 +1590,9 @@
       <c r="J17" t="s">
         <v>12</v>
       </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1575,6 +1623,9 @@
         <v>12</v>
       </c>
       <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2009,7 +2060,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/references/Census_Tables.xlsx
+++ b/references/Census_Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="137">
   <si>
     <t>Category</t>
   </si>
@@ -398,6 +398,48 @@
   </si>
   <si>
     <t>universe: households</t>
+  </si>
+  <si>
+    <t>SEX BY AGE (B01001) for race and ethnicity categories</t>
+  </si>
+  <si>
+    <t>% white, non-Hispanic or converse</t>
+  </si>
+  <si>
+    <t>universe: total population. Breaks apart population according to race and ethnicity categories (and sex and age, but we will only use totals)</t>
+  </si>
+  <si>
+    <t>B01001</t>
+  </si>
+  <si>
+    <t>B01001A</t>
+  </si>
+  <si>
+    <t>B01001B</t>
+  </si>
+  <si>
+    <t>B01001C</t>
+  </si>
+  <si>
+    <t>B01001D</t>
+  </si>
+  <si>
+    <t>B01001E</t>
+  </si>
+  <si>
+    <t>B01001F</t>
+  </si>
+  <si>
+    <t>B01001G</t>
+  </si>
+  <si>
+    <t>B01001H</t>
+  </si>
+  <si>
+    <t>B01001I</t>
+  </si>
+  <si>
+    <t>white, non-hisp</t>
   </si>
 </sst>
 </file>
@@ -741,7 +783,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,8 +959,28 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
@@ -2059,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2303,7 +2365,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B19"/>
+      <selection activeCell="A14" sqref="A14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2902,10 +2964,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3235,7 +3297,158 @@
         <v>118</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2010</v>
+      </c>
+      <c r="D16">
+        <v>2011</v>
+      </c>
+      <c r="E16">
+        <v>2012</v>
+      </c>
+      <c r="F16">
+        <v>2013</v>
+      </c>
+      <c r="G16">
+        <v>2014</v>
+      </c>
+      <c r="H16">
+        <v>2015</v>
+      </c>
+      <c r="I16">
+        <v>2016</v>
+      </c>
+      <c r="J16">
+        <v>2017</v>
+      </c>
+      <c r="K16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>